--- a/storage/archivos/importar_vuelos.xlsx
+++ b/storage/archivos/importar_vuelos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>hora_despegue</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Nueva York</t>
+  </si>
+  <si>
+    <t>costo</t>
   </si>
 </sst>
 </file>
@@ -124,11 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -485,16 +492,19 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.29166666666666669</v>
+      <c r="C2" s="4">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -520,8 +530,11 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
+      <c r="L2">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
   </sheetData>

--- a/storage/archivos/importar_vuelos.xlsx
+++ b/storage/archivos/importar_vuelos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>hora_despegue</t>
   </si>
@@ -44,9 +44,6 @@
     <t>aerolinea</t>
   </si>
   <si>
-    <t>22.57</t>
-  </si>
-  <si>
     <t>origen</t>
   </si>
   <si>
@@ -59,24 +56,9 @@
     <t>interjet</t>
   </si>
   <si>
-    <t>escala_1</t>
-  </si>
-  <si>
     <t>Monterrey</t>
   </si>
   <si>
-    <t>escala_2</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>escala_3</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -84,22 +66,35 @@
   </si>
   <si>
     <t>costo</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Yucatan</t>
+  </si>
+  <si>
+    <t>volaris</t>
+  </si>
+  <si>
+    <t>Toluca</t>
+  </si>
+  <si>
+    <t>Acapulco</t>
+  </si>
+  <si>
+    <t>intejet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,12 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,12 +452,12 @@
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -484,58 +478,298 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.62291666666666667</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="I11">
+        <v>3200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
